--- a/docs/base/StructureDefinition-lt-practitioner-role.xlsx
+++ b/docs/base/StructureDefinition-lt-practitioner-role.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T15:58:38+02:00</t>
+    <t>2025-10-30T19:04:29+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -117,7 +117,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/PractitionerRole|5.0.0</t>
+    <t>http://hl7.eu/fhir/base-r5/StructureDefinition/practitionerRole-eu-core|0.1.0</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -495,7 +495,7 @@
 </t>
   </si>
   <si>
-    <t>Identifiers for a role/location</t>
+    <t>Business identifier</t>
   </si>
   <si>
     <t>Business Identifiers that are specific to a role/location.</t>
@@ -590,11 +590,11 @@
     <t>PractitionerRole.practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.lt/fhir/base/StructureDefinition/lt-practitioner|0.1.0)
+    <t xml:space="preserve">Reference(https://hl7.lt/fhir/base/StructureDefinition/lt-practitioner|0.2.0)
 </t>
   </si>
   <si>
-    <t>Practitioner that provides services for the organization</t>
+    <t>The practitioner providing services for the organization</t>
   </si>
   <si>
     <t>Practitioner that is able to provide the defined services for the organization.</t>
@@ -606,11 +606,11 @@
     <t>PractitionerRole.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.lt/fhir/base/StructureDefinition/lt-organization|0.1.0)
+    <t xml:space="preserve">Reference(https://hl7.lt/fhir/base/StructureDefinition/lt-organization|0.2.0)
 </t>
   </si>
   <si>
-    <t>Organization where the roles are available</t>
+    <t>The organization where the practitioner performs the role</t>
   </si>
   <si>
     <t>The organization where the Practitioner performs the roles associated.</t>
@@ -626,7 +626,7 @@
 </t>
   </si>
   <si>
-    <t>Roles which this practitioner may perform</t>
+    <t>Roles which this practitioner may perform.</t>
   </si>
   <si>
     <t>Roles which this practitioner is authorized to perform for the organization.</t>
@@ -659,7 +659,7 @@
     <t>PractitionerRole.specialty</t>
   </si>
   <si>
-    <t>Specific specialty of the practitioner</t>
+    <t>Specialty of the practitioner</t>
   </si>
   <si>
     <t>The specialty of a practitioner that describes the functional role they are practicing at a given organization or location.</t>
@@ -689,11 +689,11 @@
     <t>PractitionerRole.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location|5.0.0)
+    <t xml:space="preserve">Reference(https://hl7.lt/fhir/base/StructureDefinition/lt-location|0.2.0)
 </t>
   </si>
   <si>
-    <t>Location(s) where the practitioner provides care</t>
+    <t>The location(s) at which this practitioner provides care</t>
   </si>
   <si>
     <t>The location(s) at which this practitioner provides care.</t>
@@ -734,7 +734,7 @@
 </t>
   </si>
   <si>
-    <t>Official contact details relating to this PractitionerRole</t>
+    <t>Official contact details relating to this practitioner role</t>
   </si>
   <si>
     <t>The contact details of communication devices available relevant to the specific PractitionerRole. This can include addresses, phone numbers, fax numbers, mobile numbers, email addresses and web sites.</t>
@@ -3080,7 +3080,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>205</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>79</v>
@@ -3197,7 +3197,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>215</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>79</v>
